--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H2">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I2">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J2">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>43.97081291694489</v>
+        <v>22.28026647293733</v>
       </c>
       <c r="R2">
-        <v>395.737316252504</v>
+        <v>200.522398256436</v>
       </c>
       <c r="S2">
-        <v>0.004241190861862512</v>
+        <v>0.002051442014017593</v>
       </c>
       <c r="T2">
-        <v>0.004241190861862511</v>
+        <v>0.002051442014017593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H3">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I3">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J3">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>48.34434737686846</v>
+        <v>25.81251293238134</v>
       </c>
       <c r="R3">
-        <v>435.0991263918161</v>
+        <v>232.312616391432</v>
       </c>
       <c r="S3">
-        <v>0.004663038745832846</v>
+        <v>0.002376671463116413</v>
       </c>
       <c r="T3">
-        <v>0.004663038745832844</v>
+        <v>0.002376671463116413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H4">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I4">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J4">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>26.79641192231534</v>
+        <v>19.59279531931734</v>
       </c>
       <c r="R4">
-        <v>241.167707300838</v>
+        <v>176.335157873856</v>
       </c>
       <c r="S4">
-        <v>0.002584639442311312</v>
+        <v>0.001803994738524143</v>
       </c>
       <c r="T4">
-        <v>0.002584639442311311</v>
+        <v>0.001803994738524143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H5">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I5">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J5">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>19.50111399621556</v>
+        <v>10.056052678522</v>
       </c>
       <c r="R5">
-        <v>175.51002596594</v>
+        <v>90.504474106698</v>
       </c>
       <c r="S5">
-        <v>0.001880973786705128</v>
+        <v>0.0009259049475441256</v>
       </c>
       <c r="T5">
-        <v>0.001880973786705127</v>
+        <v>0.0009259049475441256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H6">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I6">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J6">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>3197.366860939453</v>
+        <v>3034.336705223322</v>
       </c>
       <c r="R6">
-        <v>28776.30174845508</v>
+        <v>27309.0303470099</v>
       </c>
       <c r="S6">
-        <v>0.3084010099666047</v>
+        <v>0.2793847106510928</v>
       </c>
       <c r="T6">
-        <v>0.3084010099666047</v>
+        <v>0.2793847106510928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H7">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I7">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J7">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>3515.391323524439</v>
+        <v>3515.39132352444</v>
       </c>
       <c r="R7">
-        <v>31638.52191171995</v>
+        <v>31638.52191171996</v>
       </c>
       <c r="S7">
-        <v>0.3390759589858983</v>
+        <v>0.3236775226880938</v>
       </c>
       <c r="T7">
-        <v>0.3390759589858982</v>
+        <v>0.3236775226880938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H8">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I8">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J8">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>1948.518887615937</v>
+        <v>2668.331551040669</v>
       </c>
       <c r="R8">
-        <v>17536.66998854343</v>
+        <v>24014.98395936602</v>
       </c>
       <c r="S8">
-        <v>0.1879437734283628</v>
+        <v>0.2456850082014257</v>
       </c>
       <c r="T8">
-        <v>0.1879437734283627</v>
+        <v>0.2456850082014257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H9">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I9">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J9">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>1418.036454333409</v>
+        <v>1369.528043534026</v>
       </c>
       <c r="R9">
-        <v>12762.32808900068</v>
+        <v>12325.75239180623</v>
       </c>
       <c r="S9">
-        <v>0.1367762579979301</v>
+        <v>0.1260984634673726</v>
       </c>
       <c r="T9">
-        <v>0.1367762579979301</v>
+        <v>0.1260984634673726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H10">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I10">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J10">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>47.46784569742444</v>
+        <v>29.20964818853934</v>
       </c>
       <c r="R10">
-        <v>427.21061127682</v>
+        <v>262.8868336968541</v>
       </c>
       <c r="S10">
-        <v>0.004578496053381678</v>
+        <v>0.002689460630169144</v>
       </c>
       <c r="T10">
-        <v>0.004578496053381677</v>
+        <v>0.002689460630169144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H11">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I11">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J11">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>52.18921073764223</v>
+        <v>33.84045799150534</v>
       </c>
       <c r="R11">
-        <v>469.7028966387801</v>
+        <v>304.564121923548</v>
       </c>
       <c r="S11">
-        <v>0.005033893826034004</v>
+        <v>0.003115839632425151</v>
       </c>
       <c r="T11">
-        <v>0.005033893826034002</v>
+        <v>0.003115839632425151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H12">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I12">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J12">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>28.92755130035167</v>
+        <v>25.68634710910934</v>
       </c>
       <c r="R12">
-        <v>260.347961703165</v>
+        <v>231.177123981984</v>
       </c>
       <c r="S12">
-        <v>0.002790197817421541</v>
+        <v>0.002365054821506329</v>
       </c>
       <c r="T12">
-        <v>0.00279019781742154</v>
+        <v>0.002365054821506329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.200477</v>
+      </c>
+      <c r="H13">
+        <v>0.601431</v>
+      </c>
+      <c r="I13">
+        <v>0.009384225564807953</v>
+      </c>
+      <c r="J13">
+        <v>0.009384225564807953</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>65.761079</v>
+      </c>
+      <c r="N13">
+        <v>197.283237</v>
+      </c>
+      <c r="O13">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="P13">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="Q13">
+        <v>13.183583834683</v>
+      </c>
+      <c r="R13">
+        <v>118.652254512147</v>
+      </c>
+      <c r="S13">
+        <v>0.001213870480707331</v>
+      </c>
+      <c r="T13">
+        <v>0.001213870480707331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.3091783333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.927535</v>
-      </c>
-      <c r="I13">
-        <v>0.01443315678449244</v>
-      </c>
-      <c r="J13">
-        <v>0.01443315678449244</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N13">
-        <v>204.27097</v>
-      </c>
-      <c r="O13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q13">
-        <v>21.05205268432778</v>
-      </c>
-      <c r="R13">
-        <v>189.46847415895</v>
-      </c>
-      <c r="S13">
-        <v>0.00203056908765522</v>
-      </c>
-      <c r="T13">
-        <v>0.00203056908765522</v>
+      <c r="G14">
+        <v>0.183981</v>
+      </c>
+      <c r="H14">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J14">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>145.7007446666667</v>
+      </c>
+      <c r="N14">
+        <v>437.1022340000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2865937750105843</v>
+      </c>
+      <c r="P14">
+        <v>0.2865937750105843</v>
+      </c>
+      <c r="Q14">
+        <v>26.80616870451801</v>
+      </c>
+      <c r="R14">
+        <v>241.2555183406621</v>
+      </c>
+      <c r="S14">
+        <v>0.002468161715304744</v>
+      </c>
+      <c r="T14">
+        <v>0.002468161715304744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.183981</v>
+      </c>
+      <c r="H15">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J15">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3320294904365841</v>
+      </c>
+      <c r="P15">
+        <v>0.3320294904365841</v>
+      </c>
+      <c r="Q15">
+        <v>31.05593809631601</v>
+      </c>
+      <c r="R15">
+        <v>279.5034428668441</v>
+      </c>
+      <c r="S15">
+        <v>0.002859456652948776</v>
+      </c>
+      <c r="T15">
+        <v>0.002859456652948776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.183981</v>
+      </c>
+      <c r="H16">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J16">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>128.1261546666667</v>
+      </c>
+      <c r="N16">
+        <v>384.378464</v>
+      </c>
+      <c r="O16">
+        <v>0.2520245069956105</v>
+      </c>
+      <c r="P16">
+        <v>0.2520245069956105</v>
+      </c>
+      <c r="Q16">
+        <v>23.57277806172801</v>
+      </c>
+      <c r="R16">
+        <v>212.155002555552</v>
+      </c>
+      <c r="S16">
+        <v>0.002170449234154321</v>
+      </c>
+      <c r="T16">
+        <v>0.002170449234154321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.183981</v>
+      </c>
+      <c r="H17">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J17">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>65.761079</v>
+      </c>
+      <c r="N17">
+        <v>197.283237</v>
+      </c>
+      <c r="O17">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="P17">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="Q17">
+        <v>12.098789075499</v>
+      </c>
+      <c r="R17">
+        <v>108.889101679491</v>
+      </c>
+      <c r="S17">
+        <v>0.001113988661597168</v>
+      </c>
+      <c r="T17">
+        <v>0.001113988661597168</v>
       </c>
     </row>
   </sheetData>
